--- a/stock_historical_data/1wk/GEOJITFSL.NS.xlsx
+++ b/stock_historical_data/1wk/GEOJITFSL.NS.xlsx
@@ -52937,7 +52937,9 @@
       <c r="P990" t="n">
         <v>0</v>
       </c>
-      <c r="Q990" t="inlineStr"/>
+      <c r="Q990" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GEOJITFSL.NS.xlsx
+++ b/stock_historical_data/1wk/GEOJITFSL.NS.xlsx
@@ -55965,7 +55965,9 @@
       <c r="Q991" t="n">
         <v>0</v>
       </c>
-      <c r="R991" t="inlineStr"/>
+      <c r="R991" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GEOJITFSL.NS.xlsx
+++ b/stock_historical_data/1wk/GEOJITFSL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R991"/>
+  <dimension ref="A1:R993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55789,7 +55789,7 @@
         <v>21</v>
       </c>
       <c r="O988" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P988" t="n">
         <v>0</v>
@@ -55968,6 +55968,114 @@
       <c r="R991" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B992" t="n">
+        <v>102.5899963378906</v>
+      </c>
+      <c r="C992" t="n">
+        <v>110.8600006103516</v>
+      </c>
+      <c r="D992" t="n">
+        <v>101</v>
+      </c>
+      <c r="E992" t="n">
+        <v>108.0299987792969</v>
+      </c>
+      <c r="F992" t="n">
+        <v>106.4635848999023</v>
+      </c>
+      <c r="G992" t="n">
+        <v>6268592</v>
+      </c>
+      <c r="H992" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I992" t="n">
+        <v>6</v>
+      </c>
+      <c r="J992" t="n">
+        <v>17</v>
+      </c>
+      <c r="K992" t="n">
+        <v>0</v>
+      </c>
+      <c r="L992" t="n">
+        <v>0</v>
+      </c>
+      <c r="M992" t="n">
+        <v>0</v>
+      </c>
+      <c r="N992" t="n">
+        <v>25</v>
+      </c>
+      <c r="O992" t="n">
+        <v>0</v>
+      </c>
+      <c r="P992" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>0</v>
+      </c>
+      <c r="R992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B993" t="n">
+        <v>107.8099975585938</v>
+      </c>
+      <c r="C993" t="n">
+        <v>113.9599990844727</v>
+      </c>
+      <c r="D993" t="n">
+        <v>102.7399978637695</v>
+      </c>
+      <c r="E993" t="n">
+        <v>103.9700012207031</v>
+      </c>
+      <c r="F993" t="n">
+        <v>103.9700012207031</v>
+      </c>
+      <c r="G993" t="n">
+        <v>7030202</v>
+      </c>
+      <c r="H993" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I993" t="n">
+        <v>6</v>
+      </c>
+      <c r="J993" t="n">
+        <v>24</v>
+      </c>
+      <c r="K993" t="n">
+        <v>0</v>
+      </c>
+      <c r="L993" t="n">
+        <v>0</v>
+      </c>
+      <c r="M993" t="n">
+        <v>0</v>
+      </c>
+      <c r="N993" t="n">
+        <v>26</v>
+      </c>
+      <c r="O993" t="n">
+        <v>0</v>
+      </c>
+      <c r="P993" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>0</v>
+      </c>
+      <c r="R993" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GEOJITFSL.NS.xlsx
+++ b/stock_historical_data/1wk/GEOJITFSL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R993"/>
+  <dimension ref="A1:R1028"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>23</v>
       </c>
       <c r="O990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P990" t="n">
         <v>0</v>
@@ -56021,7 +56021,9 @@
       <c r="Q992" t="n">
         <v>0</v>
       </c>
-      <c r="R992" t="inlineStr"/>
+      <c r="R992" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
@@ -56075,7 +56077,1829 @@
       <c r="Q993" t="n">
         <v>0</v>
       </c>
-      <c r="R993" t="inlineStr"/>
+      <c r="R993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B994" t="n">
+        <v>101.2178703955791</v>
+      </c>
+      <c r="C994" t="n">
+        <v>103.2412362151546</v>
+      </c>
+      <c r="D994" t="n">
+        <v>94.75295240187742</v>
+      </c>
+      <c r="E994" t="n">
+        <v>96.99346160888672</v>
+      </c>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="n">
+        <v>5820083</v>
+      </c>
+      <c r="H994" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I994" t="n">
+        <v>7</v>
+      </c>
+      <c r="J994" t="n">
+        <v>1</v>
+      </c>
+      <c r="K994" t="n">
+        <v>0</v>
+      </c>
+      <c r="L994" t="n">
+        <v>0</v>
+      </c>
+      <c r="M994" t="n">
+        <v>0</v>
+      </c>
+      <c r="N994" t="n">
+        <v>27</v>
+      </c>
+      <c r="O994" t="n">
+        <v>0</v>
+      </c>
+      <c r="P994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>2</v>
+      </c>
+      <c r="R994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B995" t="n">
+        <v>98.26999664306641</v>
+      </c>
+      <c r="C995" t="n">
+        <v>107.9199981689453</v>
+      </c>
+      <c r="D995" t="n">
+        <v>96.80999755859375</v>
+      </c>
+      <c r="E995" t="n">
+        <v>105.4800033569336</v>
+      </c>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="n">
+        <v>5307915</v>
+      </c>
+      <c r="H995" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I995" t="n">
+        <v>7</v>
+      </c>
+      <c r="J995" t="n">
+        <v>8</v>
+      </c>
+      <c r="K995" t="n">
+        <v>0</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0</v>
+      </c>
+      <c r="N995" t="n">
+        <v>28</v>
+      </c>
+      <c r="O995" t="n">
+        <v>0</v>
+      </c>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
+      <c r="R995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B996" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="C996" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="D996" t="n">
+        <v>107.4800033569336</v>
+      </c>
+      <c r="E996" t="n">
+        <v>111.5500030517578</v>
+      </c>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="n">
+        <v>32587633</v>
+      </c>
+      <c r="H996" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I996" t="n">
+        <v>7</v>
+      </c>
+      <c r="J996" t="n">
+        <v>15</v>
+      </c>
+      <c r="K996" t="n">
+        <v>0</v>
+      </c>
+      <c r="L996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M996" t="n">
+        <v>0</v>
+      </c>
+      <c r="N996" t="n">
+        <v>29</v>
+      </c>
+      <c r="O996" t="n">
+        <v>1</v>
+      </c>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>1</v>
+      </c>
+      <c r="R996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B997" t="n">
+        <v>111.5500030517578</v>
+      </c>
+      <c r="C997" t="n">
+        <v>116.3399963378906</v>
+      </c>
+      <c r="D997" t="n">
+        <v>102.0599975585938</v>
+      </c>
+      <c r="E997" t="n">
+        <v>113.6100006103516</v>
+      </c>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="n">
+        <v>6925975</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I997" t="n">
+        <v>7</v>
+      </c>
+      <c r="J997" t="n">
+        <v>22</v>
+      </c>
+      <c r="K997" t="n">
+        <v>0</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0</v>
+      </c>
+      <c r="N997" t="n">
+        <v>30</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B998" t="n">
+        <v>118.6500015258789</v>
+      </c>
+      <c r="C998" t="n">
+        <v>120.6900024414062</v>
+      </c>
+      <c r="D998" t="n">
+        <v>105.2399978637695</v>
+      </c>
+      <c r="E998" t="n">
+        <v>110.8000030517578</v>
+      </c>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="n">
+        <v>5078683</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I998" t="n">
+        <v>7</v>
+      </c>
+      <c r="J998" t="n">
+        <v>29</v>
+      </c>
+      <c r="K998" t="n">
+        <v>0</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>31</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B999" t="n">
+        <v>106.1999969482422</v>
+      </c>
+      <c r="C999" t="n">
+        <v>111.6900024414062</v>
+      </c>
+      <c r="D999" t="n">
+        <v>102.0100021362305</v>
+      </c>
+      <c r="E999" t="n">
+        <v>104.6800003051758</v>
+      </c>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="n">
+        <v>4884521</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I999" t="n">
+        <v>8</v>
+      </c>
+      <c r="J999" t="n">
+        <v>5</v>
+      </c>
+      <c r="K999" t="n">
+        <v>0</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>32</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>104.0999984741211</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>104.7399978637695</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>98.30999755859375</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>102.3199996948242</v>
+      </c>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="n">
+        <v>2623589</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>103.8499984741211</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>117.5800018310547</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>101.6100006103516</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>112.75</v>
+      </c>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="n">
+        <v>8098707</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>113.8499984741211</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>133</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>113.8399963378906</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>131.7899932861328</v>
+      </c>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="n">
+        <v>26072883</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>132.8000030517578</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>174.8099975585938</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>131.1499938964844</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>161.1699981689453</v>
+      </c>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="n">
+        <v>77122977</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>161.6600036621094</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>166.8999938964844</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>154.5099945068359</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>162.1900024414062</v>
+      </c>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="n">
+        <v>11069814</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>162.9499969482422</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>177</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>146.6300048828125</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>154.4199981689453</v>
+      </c>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="n">
+        <v>14698122</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>155.8099975585938</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>162</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>148</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>155.0200042724609</v>
+      </c>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="n">
+        <v>5158192</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>141.7117156982422</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>153.9659576416016</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>136.8136138916016</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>148.7257080078125</v>
+      </c>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="n">
+        <v>8415508</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>147.4900054931641</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>147.4900054931641</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>137.9400024414062</v>
+      </c>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="n">
+        <v>5424448</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>137.9400024414062</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>153</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>130.8699951171875</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>141.4400024414062</v>
+      </c>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="n">
+        <v>10955653</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>141.3999938964844</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>144.4900054931641</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>115.7099990844727</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>121.5400009155273</v>
+      </c>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="n">
+        <v>5883359</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>122.6999969482422</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>131.3000030517578</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>120.5100021362305</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>130.5200042724609</v>
+      </c>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="n">
+        <v>2230679</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>129.6100006103516</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>136.6000061035156</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>123.3099975585938</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>124.0699996948242</v>
+      </c>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="n">
+        <v>2692493</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>123.6900024414062</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>123.6900024414062</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>114.620002746582</v>
+      </c>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="n">
+        <v>2186091</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>114.5500030517578</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>118.629997253418</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>118.629997253418</v>
+      </c>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="n">
+        <v>1946397</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>122</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>124.8499984741211</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>115.620002746582</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>118.7600021362305</v>
+      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="n">
+        <v>2235067</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>119.4000015258789</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>133</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>118.2799987792969</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>128.3999938964844</v>
+      </c>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="n">
+        <v>2772912</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>129</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>137.8000030517578</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>123.3499984741211</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>124.75</v>
+      </c>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="n">
+        <v>3923514</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>124.879997253418</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>126.7200012207031</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>113.25</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>113.8899993896484</v>
+      </c>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="n">
+        <v>2394004</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>114.9199981689453</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>118.129997253418</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>112.0599975585938</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>113.4899978637695</v>
+      </c>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="n">
+        <v>1312577</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>114.4599990844727</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>119.9000015258789</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>112.0500030517578</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>115.629997253418</v>
+      </c>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="n">
+        <v>1202467</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>116.3399963378906</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>116.3399963378906</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>105.0500030517578</v>
+      </c>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="n">
+        <v>1949376</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>103.75</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>106.75</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>99.80000305175781</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>104.0400009155273</v>
+      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="n">
+        <v>1735171</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>103.0999984741211</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>105.3000030517578</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>95</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>95.47000122070312</v>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="n">
+        <v>1286122</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>94.09999847412109</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>96.91000366210938</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>86</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>89.23999786376953</v>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="n">
+        <v>2275958</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>86.91999816894531</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>89.94000244140625</v>
+      </c>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="n">
+        <v>1706440</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>89.77999877929688</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>75.80999755859375</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>77.38999938964844</v>
+      </c>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="n">
+        <v>2200083</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>76.01000213623047</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>84.77999877929688</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>73.36000061035156</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>78.45999908447266</v>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="n">
+        <v>3135599</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>81</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>70.19999694824219</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>71.33999633789062</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>1870721</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GEOJITFSL.NS.xlsx
+++ b/stock_historical_data/1wk/GEOJITFSL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1028"/>
+  <dimension ref="A1:R1037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -56131,7 +56131,9 @@
       <c r="Q994" t="n">
         <v>2</v>
       </c>
-      <c r="R994" t="inlineStr"/>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
@@ -56183,7 +56185,9 @@
       <c r="Q995" t="n">
         <v>0</v>
       </c>
-      <c r="R995" t="inlineStr"/>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
@@ -56235,7 +56239,9 @@
       <c r="Q996" t="n">
         <v>1</v>
       </c>
-      <c r="R996" t="inlineStr"/>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
@@ -56287,7 +56293,9 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -56339,7 +56347,9 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -56391,7 +56401,9 @@
       <c r="Q999" t="n">
         <v>0</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56443,7 +56455,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56495,7 +56509,9 @@
       <c r="Q1001" t="n">
         <v>0</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
@@ -56547,7 +56563,9 @@
       <c r="Q1002" t="n">
         <v>2</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
@@ -56599,7 +56617,9 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
@@ -56651,7 +56671,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56703,7 +56725,9 @@
       <c r="Q1005" t="n">
         <v>0</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -56755,7 +56779,9 @@
       <c r="Q1006" t="n">
         <v>0</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
@@ -56807,7 +56833,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -56859,7 +56887,9 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
@@ -56911,7 +56941,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
@@ -56963,7 +56995,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -57015,7 +57049,9 @@
       <c r="Q1011" t="n">
         <v>2</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -57067,7 +57103,9 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57119,7 +57157,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57171,7 +57211,9 @@
       <c r="Q1014" t="n">
         <v>0</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57223,7 +57265,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57275,7 +57319,9 @@
       <c r="Q1016" t="n">
         <v>0</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
@@ -57327,7 +57373,9 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
@@ -57379,7 +57427,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57431,7 +57481,9 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -57483,7 +57535,9 @@
       <c r="Q1020" t="n">
         <v>1</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57535,7 +57589,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57587,7 +57643,9 @@
       <c r="Q1022" t="n">
         <v>0</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -57639,7 +57697,9 @@
       <c r="Q1023" t="n">
         <v>2</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57691,7 +57751,9 @@
       <c r="Q1024" t="n">
         <v>0</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
@@ -57743,7 +57805,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57795,7 +57859,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57847,7 +57913,9 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -57899,7 +57967,477 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>71.33999633789062</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>81</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>67.26000213623047</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>78.86000061035156</v>
+      </c>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="n">
+        <v>2858687</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>78.11000061035156</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>65.97000122070312</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>66.41000366210938</v>
+      </c>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="n">
+        <v>3120448</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>67</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>76</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>60.72999954223633</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>74.98000335693359</v>
+      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="n">
+        <v>4487639</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>75.90000152587891</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>69.30000305175781</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>71.65000152587891</v>
+      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="n">
+        <v>5167039</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>71.65000152587891</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>77.80000305175781</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>70.20999908447266</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>71.19999694824219</v>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="n">
+        <v>2808096</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>71.20999908447266</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>65.01000213623047</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>70.33000183105469</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>2222643</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>70.33000183105469</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>75.59999847412109</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>70.33000183105469</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>74.41999816894531</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>1718489</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>75.01999664306641</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>83.20999908447266</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>73.81999969482422</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>77.63999938964844</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>6086314</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>76.70999908447266</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>79</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>73.94999694824219</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>74.52999877929688</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>1558175</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
